--- a/HomeWork.xlsx
+++ b/HomeWork.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Websites\CircleOvO.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEA5833-9BFB-4433-A8F2-F6630A413BDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A255357-586C-4785-96C2-63D2543C3348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2020.10.23" sheetId="1" r:id="rId1"/>
-    <sheet name="国庆假期作业" sheetId="2" r:id="rId2"/>
+    <sheet name="2020.10.30" sheetId="1" r:id="rId1"/>
+    <sheet name="2020.10.23" sheetId="2" r:id="rId2"/>
+    <sheet name="国庆假期作业" sheetId="3" r:id="rId3"/>
+    <sheet name="格式" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
   <si>
     <t>A homework list,by ZhengHongyuan.</t>
   </si>
@@ -29,15 +31,501 @@
     <t>数学：</t>
   </si>
   <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1F4E78"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同步练习册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF407434"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:13.3.1等腰三角形(第一课时)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1F4E78"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>课本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF407434"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>p91-93:1-5&amp;8-10</t>
+    </r>
+  </si>
+  <si>
+    <t>语文：</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1F4E78"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整理笔记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF407434"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:第9课</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1F4E78"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大作业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF407434"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:生字词x2 注音x1 黄色字解释x1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1F4E78"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分层卷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF407434"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:第二单元检测(除去作文)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF203764"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF407434"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:《藤野先生》</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF203764"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复习题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF407434"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:《水浒传》《红星照耀中国》</t>
+    </r>
+  </si>
+  <si>
+    <t>英语：</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF203764"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同步练习册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF407434"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:阶段检测1(听力可选 第一题和作文不做)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF203764"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阅读教程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF407434"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:M6全做</t>
+    </r>
+  </si>
+  <si>
+    <t>物理：</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF203764"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同步练习册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF407434"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:光的色散</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF203764"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大作业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF407434"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:同步练习册梳理合作探究(光的折射,光的散射)</t>
+    </r>
+  </si>
+  <si>
+    <t>生物：</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF203764"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同步练习册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF407434"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:第4,5,6节</t>
+    </r>
+  </si>
+  <si>
+    <t>历史：</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF203764"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同步练习册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF407434"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:第13,14课(黑笔做，红笔改)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF203764"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>听写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF407434"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:第13,14课的知识点(家长听写并签字)</t>
+    </r>
+  </si>
+  <si>
+    <t>地理：</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF203764"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同步练习册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF407434"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:第四章第1节</t>
+    </r>
+  </si>
+  <si>
+    <t>道德与法治：</t>
+  </si>
+  <si>
+    <r>
+      <t>无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF407434"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(万岁~\(≧▽≦)/~)</t>
+    </r>
+  </si>
+  <si>
+    <t>其他：</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF203764"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>青年大学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF407434"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(截图发群里)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF203764"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>综合实践活动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF407434"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:做一件有意义的事</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF203764"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通校生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF407434"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:体温表</t>
+    </r>
+  </si>
+  <si>
     <t>1.数学同步剩的题+新学的那课</t>
   </si>
   <si>
     <t>2.分层卷p29-p32</t>
   </si>
   <si>
-    <t>语文：</t>
-  </si>
-  <si>
     <r>
       <t>1.8课生字词一个三遍(注音两遍)，写到</t>
     </r>
@@ -91,18 +579,12 @@
     <t>3.同步8课画的题</t>
   </si>
   <si>
-    <t>英语：</t>
-  </si>
-  <si>
     <t>1.M5U2、M6U1课文一遍，一句一译</t>
   </si>
   <si>
     <t>2.同步画的题写四次作业</t>
   </si>
   <si>
-    <t>物理：</t>
-  </si>
-  <si>
     <r>
       <t>1.同步第四章第二节</t>
     </r>
@@ -131,21 +613,12 @@
     <t>2.三次大作业</t>
   </si>
   <si>
-    <t>生物：</t>
-  </si>
-  <si>
     <t>1.同步新学的那节和前三节</t>
   </si>
   <si>
-    <t>历史：</t>
-  </si>
-  <si>
     <t>1.同步10、11课</t>
   </si>
   <si>
-    <t>地理：</t>
-  </si>
-  <si>
     <r>
       <t>1.第三章第一节</t>
     </r>
@@ -171,13 +644,7 @@
     </r>
   </si>
   <si>
-    <t>道德与法治：</t>
-  </si>
-  <si>
     <t>无(万岁~\(≧▽≦)/~)</t>
-  </si>
-  <si>
-    <t>其他：</t>
   </si>
   <si>
     <t>1.打印健康码(家人代办)</t>
@@ -308,7 +775,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -493,7 +960,14 @@
     </font>
     <font>
       <sz val="16"/>
-      <color rgb="FF222B35"/>
+      <color rgb="FF1F4E78"/>
+      <name val="幼圆"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF203764"/>
       <name val="幼圆"/>
       <family val="3"/>
       <charset val="134"/>
@@ -501,6 +975,13 @@
     <font>
       <sz val="20"/>
       <color rgb="FF000000"/>
+      <name val="幼圆"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF222B35"/>
       <name val="幼圆"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1181,7 +1662,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1209,31 +1690,34 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1248,10 +1732,13 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1275,46 +1762,46 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1672,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1685,19 +2172,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1706,14 +2193,14 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1722,120 +2209,331 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="22"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="24"/>
+      <c r="B23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
+      <c r="B24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="101.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>10</v>
+      </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>11</v>
+      <c r="A10" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>14</v>
+      <c r="A12" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>16</v>
+      <c r="A14" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>18</v>
+      <c r="A16" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="8"/>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>20</v>
+      <c r="A18" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="8"/>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>23</v>
+      <c r="A20" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="6" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1"/>
     </row>
@@ -1858,12 +2556,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1874,406 +2572,406 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="17" t="s">
+    <row r="3" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="14" t="s">
+      <c r="B3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="42" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="34"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="15" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="34"/>
+      <c r="B5" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="16" t="s">
+      <c r="C5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="34"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="14" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="34"/>
+      <c r="B7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="15" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A8" s="34"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="16" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A9" s="34"/>
+      <c r="B9" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="17" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="34"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="14" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="34"/>
+      <c r="B11" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="37">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="34"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="34"/>
+      <c r="B15" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="34"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="34"/>
+      <c r="B17" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="34"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="34"/>
+      <c r="B19" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="35"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="34"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="34"/>
+      <c r="B23" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="34"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="34"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="34"/>
+      <c r="B27" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="35"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="39">
         <v>10.7</v>
       </c>
-      <c r="B29" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="B29" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="40"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>56</v>
+      <c r="A31" s="40"/>
+      <c r="B31" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2282,10 +2980,10 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="14" t="s">
-        <v>56</v>
+      <c r="A32" s="41"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2318,7 +3016,195 @@
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <picture r:id="rId2"/>
+  <picture r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="101.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="20"/>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="22"/>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="22"/>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="22"/>
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="22"/>
+      <c r="B18" s="8">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>